--- a/unit3_thread/unit3_thread.xlsx
+++ b/unit3_thread/unit3_thread.xlsx
@@ -1,16 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F4F7AC-4B1D-4AFD-840D-1D6320F10C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Thread" sheetId="1" r:id="rId1"/>
-    <sheet name="mutex, semartphore, atomic" sheetId="4" r:id="rId2"/>
-    <sheet name="Ép kiểu" sheetId="2" r:id="rId3"/>
-    <sheet name="wrapper function" sheetId="3" r:id="rId4"/>
+    <sheet name="MucLuc" sheetId="5" r:id="rId1"/>
+    <sheet name="Thread" sheetId="1" r:id="rId2"/>
+    <sheet name="mutex, semartphore, atomic" sheetId="4" r:id="rId3"/>
+    <sheet name="Ép kiểu" sheetId="2" r:id="rId4"/>
+    <sheet name="wrapper function" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="329">
   <si>
     <t>✅ Thread là gì?</t>
   </si>
@@ -34,7 +36,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -45,7 +47,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -55,7 +57,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -66,7 +68,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -76,7 +78,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -92,7 +94,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -102,7 +104,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -118,7 +120,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -128,7 +130,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -144,7 +146,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -154,7 +156,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -165,7 +167,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -175,7 +177,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -194,7 +196,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -229,7 +231,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -251,7 +253,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -276,7 +278,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -292,7 +294,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -311,7 +313,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -330,7 +332,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -349,7 +351,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -368,7 +370,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -387,7 +389,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -403,7 +405,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -413,7 +415,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -435,7 +437,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -445,7 +447,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -483,7 +485,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -501,7 +503,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -516,7 +518,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -531,7 +533,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -546,7 +548,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -564,7 +566,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -589,7 +591,7 @@
         <b/>
         <sz val="13.5"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -645,7 +647,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -660,7 +662,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -678,7 +680,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -735,7 +737,7 @@
         <b/>
         <sz val="13.5"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -753,7 +755,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -771,7 +773,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -794,7 +796,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -812,7 +814,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -857,7 +859,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -867,7 +869,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -885,7 +887,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -903,7 +905,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -921,7 +923,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -937,7 +939,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -947,7 +949,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -965,7 +967,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -983,7 +985,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1039,7 +1041,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1059,7 +1061,7 @@
         <i/>
         <sz val="13.5"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1070,7 +1072,7 @@
         <b/>
         <sz val="13.5"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1099,7 +1101,7 @@
         <i/>
         <sz val="13.5"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1110,7 +1112,7 @@
         <b/>
         <sz val="13.5"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1139,7 +1141,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1157,7 +1159,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1202,7 +1204,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1212,7 +1214,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1230,7 +1232,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1241,7 +1243,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1251,7 +1253,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1269,7 +1271,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1287,7 +1289,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1298,7 +1300,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1308,7 +1310,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1326,7 +1328,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1344,7 +1346,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1360,7 +1362,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1370,7 +1372,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1381,7 +1383,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1391,7 +1393,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1409,7 +1411,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1427,7 +1429,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1438,7 +1440,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1458,7 +1460,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1483,7 +1485,7 @@
         <b/>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1518,7 +1520,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1534,7 +1536,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1544,7 +1546,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1575,7 +1577,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1652,7 +1654,7 @@
         <b/>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1714,7 +1716,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1729,7 +1731,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1747,7 +1749,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1770,7 +1772,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1802,7 +1804,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1834,7 +1836,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1845,7 +1847,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1855,7 +1857,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1866,7 +1868,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1876,7 +1878,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1916,7 +1918,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1927,7 +1929,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1937,7 +1939,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1960,7 +1962,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2040,7 +2042,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2050,7 +2052,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2078,7 +2080,7 @@
         <b/>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2096,7 +2098,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2114,7 +2116,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2137,7 +2139,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2184,7 +2186,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2195,7 +2197,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2205,7 +2207,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2220,7 +2222,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2231,7 +2233,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2253,7 +2255,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2277,7 +2279,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2292,7 +2294,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2310,7 +2312,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2328,7 +2330,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2371,7 +2373,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2389,7 +2391,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2412,7 +2414,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2423,7 +2425,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2433,7 +2435,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2451,7 +2453,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2467,7 +2469,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2487,7 +2489,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2542,7 +2544,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2565,7 +2567,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2576,7 +2578,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2592,7 +2594,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2602,7 +2604,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2620,7 +2622,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2659,7 +2661,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2669,7 +2671,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2685,7 +2687,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2695,7 +2697,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2718,7 +2720,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2746,7 +2748,7 @@
         <b/>
         <sz val="18"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2761,7 +2763,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2772,7 +2774,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2782,7 +2784,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2798,7 +2800,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2808,7 +2810,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2819,7 +2821,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2829,7 +2831,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2892,7 +2894,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2910,7 +2912,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2950,7 +2952,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2968,7 +2970,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3008,7 +3010,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3054,7 +3056,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3097,7 +3099,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3115,7 +3117,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3155,7 +3157,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3173,7 +3175,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3208,7 +3210,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3226,7 +3228,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3244,7 +3246,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3262,7 +3264,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3273,7 +3275,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3283,7 +3285,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3336,7 +3338,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3354,7 +3356,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3372,7 +3374,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3383,7 +3385,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3393,7 +3395,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3421,7 +3423,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3431,7 +3433,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3449,7 +3451,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3475,7 +3477,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3539,7 +3541,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3549,7 +3551,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3587,7 +3589,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3729,7 +3731,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3762,24 +3764,36 @@
   </si>
   <si>
     <t xml:space="preserve">    free(t);</t>
+  </si>
+  <si>
+    <t>Thread</t>
+  </si>
+  <si>
+    <t>mutex, semartphore, atomic</t>
+  </si>
+  <si>
+    <t>Ép kiểu</t>
+  </si>
+  <si>
+    <t>wrapper function</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3787,7 +3801,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3795,7 +3809,7 @@
       <b/>
       <sz val="13.5"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3808,7 +3822,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3816,7 +3830,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3831,7 +3845,7 @@
       <i/>
       <sz val="13.5"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3850,8 +3864,34 @@
       <b/>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3887,10 +3927,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3942,17 +3983,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3985,7 +4030,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4023,7 +4074,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4061,7 +4118,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4099,7 +4162,13 @@
     <xdr:ext cx="4487752" cy="1114869"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4132,7 +4201,13 @@
     <xdr:ext cx="15280232" cy="9278645"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4420,27 +4495,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B3AC15-F945-451F-BF94-D4501C9B221F}">
+  <dimension ref="B3:B9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="16384" width="8.796875" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" s="24" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="26" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="26" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="26" t="s">
+        <v>328</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" location="Thread!A1" display="Thread" xr:uid="{CD8B97BF-4191-4D12-B1E2-FD0BBE685595}"/>
+    <hyperlink ref="B5" location="'mutex, semartphore, atomic'!A1" display="'mutex, semartphore, atomic" xr:uid="{6F9A839A-7D66-4EB6-B77F-8AB04A84BF9E}"/>
+    <hyperlink ref="B7" location="'Ép kiểu'!A1" display="'Ép kiểu" xr:uid="{B23AE990-DB24-4BA9-AF4A-C06A7FE4150D}"/>
+    <hyperlink ref="B9" location="'wrapper function'!A1" display="'wrapper function" xr:uid="{7729CFA5-F375-4459-A8AC-C067B93DFFB6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O84"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" customWidth="1"/>
-    <col min="15" max="15" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.8984375" customWidth="1"/>
+    <col min="8" max="8" width="22.59765625" customWidth="1"/>
+    <col min="11" max="11" width="22.296875" customWidth="1"/>
+    <col min="15" max="15" width="32.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.25">
+    <row r="1" spans="1:15" ht="22.8">
       <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18">
+    <row r="3" spans="1:15" ht="17.399999999999999">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -4477,129 +4596,129 @@
       <c r="C11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
       <c r="K11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="22" t="s">
+      <c r="L11" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
     </row>
     <row r="12" spans="1:15">
       <c r="C12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
       <c r="K12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="21" t="s">
+      <c r="L12" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
     </row>
     <row r="13" spans="1:15">
       <c r="C13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
       <c r="K13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="21" t="s">
+      <c r="L13" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
     </row>
     <row r="14" spans="1:15">
       <c r="C14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
       <c r="K14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="21" t="s">
+      <c r="L14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
     </row>
     <row r="15" spans="1:15">
       <c r="C15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
       <c r="K15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="21" t="s">
+      <c r="L15" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
     </row>
     <row r="16" spans="1:15">
       <c r="C16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
       <c r="K16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L16" s="21" t="s">
+      <c r="L16" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-    </row>
-    <row r="18" spans="1:2" ht="23.25">
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+    </row>
+    <row r="18" spans="1:2" ht="22.8">
       <c r="A18" s="8" t="s">
         <v>31</v>
       </c>
@@ -4614,12 +4733,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="23.25">
+    <row r="30" spans="1:2" ht="22.8">
       <c r="B30" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="18">
+    <row r="31" spans="1:2" ht="17.399999999999999">
       <c r="B31" s="2" t="s">
         <v>35</v>
       </c>
@@ -4655,12 +4774,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="2:3" ht="18">
+    <row r="38" spans="2:3" ht="17.399999999999999">
       <c r="B38" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="18">
+    <row r="39" spans="2:3" ht="17.399999999999999">
       <c r="C39" s="2" t="s">
         <v>43</v>
       </c>
@@ -4695,12 +4814,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="2:3" ht="23.25">
+    <row r="48" spans="2:3" ht="22.8">
       <c r="B48" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="2:3" ht="18">
+    <row r="49" spans="2:3" ht="17.399999999999999">
       <c r="B49" s="2" t="s">
         <v>51</v>
       </c>
@@ -4720,12 +4839,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="2:3" ht="18">
+    <row r="53" spans="2:3" ht="17.399999999999999">
       <c r="B53" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="2:3" ht="18">
+    <row r="54" spans="2:3" ht="17.399999999999999">
       <c r="C54" s="2" t="s">
         <v>43</v>
       </c>
@@ -4776,12 +4895,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="2:3" ht="23.25">
+    <row r="65" spans="2:3" ht="22.8">
       <c r="B65" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="2:3" ht="18">
+    <row r="66" spans="2:3" ht="17.399999999999999">
       <c r="B66" s="2" t="s">
         <v>62</v>
       </c>
@@ -4801,7 +4920,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="2:3" ht="18">
+    <row r="70" spans="2:3" ht="17.399999999999999">
       <c r="C70" s="2" t="s">
         <v>43</v>
       </c>
@@ -4831,12 +4950,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="2:3" ht="23.25">
+    <row r="76" spans="2:3" ht="22.8">
       <c r="B76" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="2:3" ht="18">
+    <row r="77" spans="2:3" ht="17.399999999999999">
       <c r="B77" s="2" t="s">
         <v>70</v>
       </c>
@@ -4856,7 +4975,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="81" spans="3:3" ht="18">
+    <row r="81" spans="3:3" ht="17.399999999999999">
       <c r="C81" s="2" t="s">
         <v>43</v>
       </c>
@@ -4878,11 +4997,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="L15:O15"/>
     <mergeCell ref="L16:O16"/>
     <mergeCell ref="D16:H16"/>
     <mergeCell ref="D11:H11"/>
@@ -4890,6 +5004,11 @@
     <mergeCell ref="D13:H13"/>
     <mergeCell ref="D14:H14"/>
     <mergeCell ref="D15:H15"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="L15:O15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4897,15 +5016,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O91"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="9" t="s">
@@ -4920,7 +5039,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="23.25">
+    <row r="3" spans="1:14" ht="22.8">
       <c r="B3" s="10" t="s">
         <v>130</v>
       </c>
@@ -4988,7 +5107,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="23.25">
+    <row r="14" spans="1:14" ht="22.8">
       <c r="B14" s="10" t="s">
         <v>140</v>
       </c>
@@ -4996,7 +5115,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="18">
+    <row r="15" spans="1:14" ht="17.399999999999999">
       <c r="C15" s="2" t="s">
         <v>141</v>
       </c>
@@ -5030,7 +5149,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="18">
+    <row r="19" spans="2:15" ht="55.2">
       <c r="C19" s="2" t="s">
         <v>145</v>
       </c>
@@ -5042,7 +5161,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="30">
+    <row r="20" spans="2:15" ht="96.6">
       <c r="C20" s="17" t="s">
         <v>146</v>
       </c>
@@ -5053,7 +5172,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" ht="55.2">
       <c r="C21" s="18" t="s">
         <v>147</v>
       </c>
@@ -5063,7 +5182,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="45">
+    <row r="22" spans="2:15" ht="138">
       <c r="B22" s="10" t="s">
         <v>148</v>
       </c>
@@ -5074,7 +5193,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="18">
+    <row r="23" spans="2:15" ht="17.399999999999999">
       <c r="C23" s="2" t="s">
         <v>141</v>
       </c>
@@ -5103,7 +5222,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="2:15" ht="18">
+    <row r="27" spans="2:15" ht="17.399999999999999">
       <c r="C27" t="s">
         <v>152</v>
       </c>
@@ -5127,7 +5246,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="23.25">
+    <row r="30" spans="2:15" ht="22.8">
       <c r="B30" s="10" t="s">
         <v>155</v>
       </c>
@@ -5136,7 +5255,7 @@
       </c>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="2:15" ht="18">
+    <row r="31" spans="2:15" ht="17.399999999999999">
       <c r="B31" s="2" t="s">
         <v>141</v>
       </c>
@@ -5152,7 +5271,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="18">
+    <row r="33" spans="2:14" ht="17.399999999999999">
       <c r="C33" s="4" t="s">
         <v>157</v>
       </c>
@@ -5186,7 +5305,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="37" spans="2:14" ht="18">
+    <row r="37" spans="2:14" ht="17.399999999999999">
       <c r="C37" s="11" t="s">
         <v>161</v>
       </c>
@@ -5209,7 +5328,7 @@
       </c>
       <c r="M39" s="4"/>
     </row>
-    <row r="40" spans="2:14" ht="23.25">
+    <row r="40" spans="2:14" ht="22.8">
       <c r="C40" s="11" t="s">
         <v>164</v>
       </c>
@@ -5217,7 +5336,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="41" spans="2:14" ht="18">
+    <row r="41" spans="2:14" ht="17.399999999999999">
       <c r="C41" s="11" t="s">
         <v>47</v>
       </c>
@@ -5225,7 +5344,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="2:14" ht="23.25">
+    <row r="42" spans="2:14" ht="22.8">
       <c r="B42" s="10" t="s">
         <v>165</v>
       </c>
@@ -5233,7 +5352,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="43" spans="2:14" ht="18">
+    <row r="43" spans="2:14" ht="17.399999999999999">
       <c r="C43" s="2" t="s">
         <v>141</v>
       </c>
@@ -5273,13 +5392,13 @@
       </c>
       <c r="N47" s="4"/>
     </row>
-    <row r="48" spans="2:14" ht="23.25">
+    <row r="48" spans="2:14" ht="22.8">
       <c r="B48" s="4"/>
       <c r="M48" s="10" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="23.25">
+    <row r="49" spans="1:14" ht="22.8">
       <c r="B49" s="10" t="s">
         <v>170</v>
       </c>
@@ -5287,7 +5406,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="18">
+    <row r="50" spans="1:14" ht="17.399999999999999">
       <c r="C50" s="2" t="s">
         <v>141</v>
       </c>
@@ -5339,7 +5458,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="23.25">
+    <row r="58" spans="1:14" ht="22.8">
       <c r="A58" s="10" t="s">
         <v>217</v>
       </c>
@@ -5354,7 +5473,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="23.25">
+    <row r="62" spans="1:14" ht="22.8">
       <c r="B62" s="10" t="s">
         <v>220</v>
       </c>
@@ -5374,7 +5493,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="23.25">
+    <row r="67" spans="2:9" ht="22.8">
       <c r="B67" s="10" t="s">
         <v>224</v>
       </c>
@@ -5382,7 +5501,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="18">
+    <row r="69" spans="2:9" ht="17.399999999999999">
       <c r="B69" s="2" t="s">
         <v>225</v>
       </c>
@@ -5412,7 +5531,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="18">
+    <row r="73" spans="2:9" ht="17.399999999999999">
       <c r="B73" s="2" t="s">
         <v>228</v>
       </c>
@@ -5438,7 +5557,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="2:9" ht="18">
+    <row r="76" spans="2:9" ht="17.399999999999999">
       <c r="B76" s="2" t="s">
         <v>231</v>
       </c>
@@ -5475,7 +5594,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="81" spans="2:9" ht="18">
+    <row r="81" spans="2:9" ht="17.399999999999999">
       <c r="B81" s="2" t="s">
         <v>236</v>
       </c>
@@ -5513,7 +5632,7 @@
       </c>
       <c r="H85" s="11"/>
     </row>
-    <row r="86" spans="2:9" ht="18">
+    <row r="86" spans="2:9" ht="17.399999999999999">
       <c r="B86" s="2" t="s">
         <v>240</v>
       </c>
@@ -5529,7 +5648,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="89" spans="2:9" ht="18">
+    <row r="89" spans="2:9" ht="17.399999999999999">
       <c r="B89" s="2" t="s">
         <v>243</v>
       </c>
@@ -5553,21 +5672,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="19" max="19" width="9" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="21.85546875" customWidth="1"/>
-    <col min="22" max="22" width="29.42578125" customWidth="1"/>
-    <col min="25" max="25" width="24.7109375" customWidth="1"/>
+    <col min="20" max="20" width="9.09765625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="21.8984375" customWidth="1"/>
+    <col min="22" max="22" width="29.3984375" customWidth="1"/>
+    <col min="25" max="25" width="24.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -5580,12 +5699,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="23.25">
+    <row r="3" spans="1:25" ht="22.8">
       <c r="C3" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="18">
+    <row r="4" spans="1:25" ht="17.399999999999999">
       <c r="D4" s="2" t="s">
         <v>79</v>
       </c>
@@ -5600,7 +5719,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="18">
+    <row r="8" spans="1:25" ht="17.399999999999999">
       <c r="D8" s="2" t="s">
         <v>82</v>
       </c>
@@ -5623,7 +5742,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="23.25">
+    <row r="14" spans="1:25" ht="22.8">
       <c r="C14" s="10" t="s">
         <v>86</v>
       </c>
@@ -5636,13 +5755,13 @@
       <c r="V14" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="W14" s="22" t="s">
+      <c r="W14" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-    </row>
-    <row r="15" spans="1:25" ht="18">
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+    </row>
+    <row r="15" spans="1:25" ht="17.399999999999999">
       <c r="D15" s="2" t="s">
         <v>87</v>
       </c>
@@ -5655,11 +5774,11 @@
       <c r="V15" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="W15" s="21" t="s">
+      <c r="W15" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
     </row>
     <row r="16" spans="1:25">
       <c r="D16" s="11" t="s">
@@ -5675,11 +5794,11 @@
       <c r="V16" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="W16" s="21" t="s">
+      <c r="W16" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="22"/>
     </row>
     <row r="17" spans="3:25">
       <c r="D17" s="11" t="s">
@@ -5695,13 +5814,13 @@
       <c r="V17" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="W17" s="21" t="s">
+      <c r="W17" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="21"/>
-    </row>
-    <row r="18" spans="3:25" ht="30">
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+    </row>
+    <row r="18" spans="3:25" ht="27.6">
       <c r="D18" s="11" t="s">
         <v>90</v>
       </c>
@@ -5715,11 +5834,11 @@
       <c r="V18" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="W18" s="21" t="s">
+      <c r="W18" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="21"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
     </row>
     <row r="19" spans="3:25">
       <c r="D19" s="11" t="s">
@@ -5734,7 +5853,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="3:25" ht="18">
+    <row r="21" spans="3:25" ht="17.399999999999999">
       <c r="D21" s="2" t="s">
         <v>92</v>
       </c>
@@ -5757,7 +5876,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="3:25" ht="23.25">
+    <row r="27" spans="3:25" ht="22.8">
       <c r="C27" s="10" t="s">
         <v>96</v>
       </c>
@@ -5783,7 +5902,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="3:4" ht="23.25">
+    <row r="33" spans="3:4" ht="22.8">
       <c r="C33" s="10" t="s">
         <v>101</v>
       </c>
@@ -5798,7 +5917,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="3:4" ht="23.25">
+    <row r="38" spans="3:4" ht="22.8">
       <c r="C38" s="10" t="s">
         <v>103</v>
       </c>
@@ -5822,22 +5941,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:3" ht="21">
       <c r="A1" s="19" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="23.25">
+    <row r="2" spans="1:3" ht="22.8">
       <c r="B2" s="10" t="s">
         <v>262</v>
       </c>
@@ -5872,7 +5989,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="23.25">
+    <row r="10" spans="1:3" ht="22.8">
       <c r="B10" s="10" t="s">
         <v>269</v>
       </c>
@@ -5910,12 +6027,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="23.25">
+    <row r="18" spans="2:3" ht="22.8">
       <c r="B18" s="10" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="18">
+    <row r="20" spans="2:3" ht="17.399999999999999">
       <c r="B20" s="2" t="s">
         <v>277</v>
       </c>
@@ -5945,7 +6062,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="18">
+    <row r="27" spans="2:3" ht="17.399999999999999">
       <c r="B27" s="2" t="s">
         <v>282</v>
       </c>
@@ -6000,7 +6117,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="18">
+    <row r="39" spans="2:3" ht="17.399999999999999">
       <c r="B39" s="2" t="s">
         <v>291</v>
       </c>
@@ -6030,7 +6147,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="46" spans="2:3" ht="23.25">
+    <row r="46" spans="2:3" ht="22.8">
       <c r="B46" s="10" t="s">
         <v>296</v>
       </c>
@@ -6060,77 +6177,77 @@
         <v>301</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="23.25">
+    <row r="55" spans="2:8" ht="22.8">
       <c r="B55" s="10" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="57" spans="2:8">
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22" t="s">
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
     </row>
     <row r="58" spans="2:8">
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="22" t="s">
         <v>305</v>
       </c>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21" t="s">
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
     </row>
     <row r="59" spans="2:8">
-      <c r="B59" s="21" t="s">
+      <c r="B59" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21" t="s">
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
     </row>
     <row r="60" spans="2:8">
-      <c r="B60" s="21" t="s">
+      <c r="B60" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21" t="s">
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
     </row>
     <row r="61" spans="2:8">
-      <c r="B61" s="21" t="s">
+      <c r="B61" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21" t="s">
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-    </row>
-    <row r="64" spans="2:8" ht="23.25">
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+    </row>
+    <row r="64" spans="2:8" ht="22.8">
       <c r="B64" s="10" t="s">
         <v>313</v>
       </c>
@@ -6215,16 +6332,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E57:H57"/>
+    <mergeCell ref="E58:H58"/>
+    <mergeCell ref="E59:H59"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="E61:H61"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="B58:D58"/>
     <mergeCell ref="B59:D59"/>
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B61:D61"/>
-    <mergeCell ref="E57:H57"/>
-    <mergeCell ref="E58:H58"/>
-    <mergeCell ref="E59:H59"/>
-    <mergeCell ref="E60:H60"/>
-    <mergeCell ref="E61:H61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
